--- a/PROGRAMMAZIONE/anagrafe.xlsx
+++ b/PROGRAMMAZIONE/anagrafe.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5921722A-C451-408B-8E9F-AA635D1E9D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7FF19-DDBD-44AD-8F56-80FC421D2E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C385908-A5F9-49C2-B4D2-01A6F479358B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Matricola</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>MATTEO</t>
+  </si>
+  <si>
+    <t>LDG</t>
+  </si>
+  <si>
+    <t>LMA</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
@@ -195,9 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -512,23 +533,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5A8AF-41D5-4FED-99BF-402A5F264DA8}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A20" sqref="A20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
     <col min="5" max="5" width="89.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +568,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>587</v>
       </c>
@@ -567,8 +606,26 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>866</v>
       </c>
@@ -587,8 +644,26 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>921</v>
       </c>
@@ -607,8 +682,26 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1523</v>
       </c>
@@ -627,8 +720,26 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>634</v>
       </c>
@@ -647,8 +758,26 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1306</v>
       </c>
@@ -667,8 +796,26 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>841</v>
       </c>
@@ -687,8 +834,26 @@
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1046</v>
       </c>
@@ -707,8 +872,26 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>95</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1054</v>
       </c>
@@ -727,8 +910,26 @@
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>668</v>
       </c>
@@ -747,8 +948,26 @@
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1797</v>
       </c>
@@ -767,8 +986,26 @@
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1877</v>
       </c>
@@ -787,8 +1024,26 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1878</v>
       </c>
@@ -807,8 +1062,26 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1557</v>
       </c>
@@ -827,8 +1100,31 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROGRAMMAZIONE/anagrafe.xlsx
+++ b/PROGRAMMAZIONE/anagrafe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7FF19-DDBD-44AD-8F56-80FC421D2E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B39AC3-303B-417F-984A-882782C4D87C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C385908-A5F9-49C2-B4D2-01A6F479358B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Matricola</t>
   </si>
@@ -178,19 +178,37 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>C Amm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,15 +227,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5A8AF-41D5-4FED-99BF-402A5F264DA8}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,9 +1167,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>313</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>629</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>633</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>735</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>784</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>927</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
